--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-495607.9702338661</v>
+        <v>-498263.9549092049</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13328268.41859358</v>
+        <v>13328268.41859357</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>12.08336394417012</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.60407568420769</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>93.24892043140832</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>91.47386906899209</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>49.91388150044079</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>88.36943801730654</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>73.67667184220011</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>16.9846395954736</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.5250233818693</v>
@@ -947,13 +947,13 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>135.5369880975196</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -1108,19 +1108,19 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>181.086628233667</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>290.4513241601516</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>165.8353603279679</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>6.96493952600148</v>
+        <v>30.26152363632566</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1576,10 +1576,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>6.228861054225572</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>54.4574018039584</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>11.76284745948067</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.1095818503213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>143.3175246302644</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>245.8796921214428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,16 +2296,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>21.44532649588058</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>151.8518831495031</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>71.60395572454127</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.7077656527111</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>60.32297266393842</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>102.5859514748438</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>26.27614159852218</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652662</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825.0063330043617</v>
+        <v>1267.8925295828</v>
       </c>
       <c r="C2" t="n">
-        <v>456.04381606395</v>
+        <v>1267.8925295828</v>
       </c>
       <c r="D2" t="n">
-        <v>456.04381606395</v>
+        <v>1267.8925295828</v>
       </c>
       <c r="E2" t="n">
-        <v>363.5144466859625</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="F2" t="n">
-        <v>363.5144466859625</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859625</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
@@ -4331,49 +4331,49 @@
         <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>471.7012105172445</v>
+        <v>605.2571586872677</v>
       </c>
       <c r="L2" t="n">
-        <v>709.3239917354365</v>
+        <v>842.8799399054598</v>
       </c>
       <c r="M2" t="n">
-        <v>1005.394558293039</v>
+        <v>1138.950506463063</v>
       </c>
       <c r="N2" t="n">
-        <v>1646.417767912933</v>
+        <v>1444.425612698648</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532827</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2354.068822297721</v>
       </c>
       <c r="U2" t="n">
-        <v>2377.974895202417</v>
+        <v>2354.068822297721</v>
       </c>
       <c r="V2" t="n">
-        <v>2046.912007858846</v>
+        <v>2023.00593495415</v>
       </c>
       <c r="W2" t="n">
-        <v>1694.143352588732</v>
+        <v>1670.237279684036</v>
       </c>
       <c r="X2" t="n">
-        <v>1601.745505044295</v>
+        <v>1670.237279684036</v>
       </c>
       <c r="Y2" t="n">
-        <v>1211.606173068483</v>
+        <v>1280.097947708224</v>
       </c>
     </row>
     <row r="3">
@@ -4407,19 +4407,19 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626825</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>669.9499323155136</v>
+        <v>794.7800573025183</v>
       </c>
       <c r="M3" t="n">
-        <v>1310.973141935408</v>
+        <v>1058.719588798006</v>
       </c>
       <c r="N3" t="n">
-        <v>1798.302562220578</v>
+        <v>1408.378866136616</v>
       </c>
       <c r="O3" t="n">
         <v>2037.107513972037</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.1216277296958</v>
+        <v>102.2179174444771</v>
       </c>
       <c r="C4" t="n">
-        <v>220.1216277296958</v>
+        <v>102.2179174444771</v>
       </c>
       <c r="D4" t="n">
-        <v>220.1216277296958</v>
+        <v>102.2179174444771</v>
       </c>
       <c r="E4" t="n">
-        <v>220.1216277296958</v>
+        <v>102.2179174444771</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>102.2179174444771</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4513,25 +4513,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1108.730062521424</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1108.730062521424</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>819.5934355135264</v>
+        <v>1022.065682353225</v>
       </c>
       <c r="V4" t="n">
-        <v>730.3313769101865</v>
+        <v>1022.065682353225</v>
       </c>
       <c r="W4" t="n">
-        <v>440.9142068732259</v>
+        <v>732.6485123162643</v>
       </c>
       <c r="X4" t="n">
-        <v>440.9142068732259</v>
+        <v>504.6589614182469</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.1216277296958</v>
+        <v>283.8663822747168</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1277.356584430611</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="C5" t="n">
-        <v>908.3940674901992</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="D5" t="n">
-        <v>550.1283688834487</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="E5" t="n">
-        <v>550.1283688834487</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F5" t="n">
         <v>532.9721672718592</v>
@@ -4595,22 +4595,22 @@
         <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961805</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.590997961805</v>
+        <v>2134.752698217159</v>
       </c>
       <c r="W5" t="n">
-        <v>1650.822342691691</v>
+        <v>1781.984042947045</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.356584430611</v>
+        <v>1408.518284685965</v>
       </c>
       <c r="Y5" t="n">
-        <v>1277.356584430611</v>
+        <v>1018.378952710154</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421434</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>965.5645858344687</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1355.974147160211</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1996.997356780105</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>654.7118256390123</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C7" t="n">
-        <v>654.7118256390123</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D7" t="n">
-        <v>504.5951862266766</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E7" t="n">
-        <v>356.6820926442834</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U7" t="n">
-        <v>836.360290469252</v>
+        <v>1044.683643607215</v>
       </c>
       <c r="V7" t="n">
-        <v>836.360290469252</v>
+        <v>789.9991554013277</v>
       </c>
       <c r="W7" t="n">
-        <v>836.360290469252</v>
+        <v>500.5819853643671</v>
       </c>
       <c r="X7" t="n">
-        <v>836.360290469252</v>
+        <v>272.5924344663498</v>
       </c>
       <c r="Y7" t="n">
-        <v>836.360290469252</v>
+        <v>51.79985532281972</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1826.387675904094</v>
+        <v>1312.920589001878</v>
       </c>
       <c r="C8" t="n">
-        <v>1457.425158963682</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="D8" t="n">
-        <v>1164.039983044337</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="E8" t="n">
-        <v>778.251730446093</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2658256564855</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6243878970215</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104779</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135518</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477397</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
@@ -4817,7 +4817,7 @@
         <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2089.659761041812</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>2089.659761041812</v>
       </c>
       <c r="W8" t="n">
-        <v>2589.992766140986</v>
+        <v>2089.659761041812</v>
       </c>
       <c r="X8" t="n">
-        <v>2216.527007879906</v>
+        <v>2089.659761041812</v>
       </c>
       <c r="Y8" t="n">
-        <v>1826.387675904094</v>
+        <v>1699.520429066</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258286</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421431</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M9" t="n">
-        <v>1240.281905962037</v>
+        <v>1365.112030949042</v>
       </c>
       <c r="N9" t="n">
-        <v>1630.691467287779</v>
+        <v>1755.521592274784</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>2090.450272990315</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2339.927000855334</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>375.6844242836263</v>
+        <v>715.8400517305967</v>
       </c>
       <c r="C10" t="n">
-        <v>206.7482413557194</v>
+        <v>546.9038688026898</v>
       </c>
       <c r="D10" t="n">
-        <v>199.7129489052128</v>
+        <v>516.3366732104416</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
         <v>51.79985532281972</v>
@@ -4960,16 +4960,16 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225441</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317418</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4981,31 +4981,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910903</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910903</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1321.927733452885</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1032.809956463283</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="V10" t="n">
-        <v>778.1254682573962</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="W10" t="n">
-        <v>778.1254682573962</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="X10" t="n">
-        <v>778.1254682573962</v>
+        <v>897.4885165608364</v>
       </c>
       <c r="Y10" t="n">
-        <v>557.332889113866</v>
+        <v>897.4885165608364</v>
       </c>
     </row>
     <row r="11">
@@ -5039,25 +5039,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.580456911439</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983532</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711962</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908939</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783226</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.021500885209</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.228921741679</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408906</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1430.931364336515</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5513,13 +5513,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5595,25 +5595,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
         <v>631.7012443408906</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1729.097755135313</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5729,28 +5729,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5768,22 +5768,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5841,16 +5841,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356194</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
         <v>929.7309773356194</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1560.161572207406</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192548</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2307.590151828076</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2018.514925172274</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2598873597757</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991043</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>866.4638174991043</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.9745311434712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>701.0383482155643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>550.9217088032285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6652,19 +6652,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015258</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.415575117241</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.622995973711</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,22 +6780,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>593.6115863900017</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>593.6115863900017</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>593.6115863900017</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>446.7216388920913</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
-        <v>279.5255396069712</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6926,16 +6926,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>835.5837926935558</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>666.6476097656489</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>516.5309703533131</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>516.5309703533131</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>369.6410228554028</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>202.4449235702827</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.014387565343</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1238.024836667326</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>1017.232257523796</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,7 +7190,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,22 +7257,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7321,10 +7321,10 @@
         <v>411.2214559580121</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384027</v>
+        <v>151.3734194384028</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7412,10 +7412,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
@@ -7424,10 +7424,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,13 +7591,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,22 +7786,22 @@
         <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7822,13 +7822,13 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7843,7 +7843,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>16.76851115643709</v>
+        <v>151.6735093079757</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,19 +7988,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659683</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>369.6030205083429</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,13 +8064,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660669</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>204.0359089412501</v>
+        <v>64.97515849017879</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1863928326898</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>200.7458546176089</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>277.4922425530996</v>
+        <v>277.4922425530995</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>232.4400048971994</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>106.3489695567903</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906583</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>370.6504777193105</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504415</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>278.2572316094769</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.2941372823655</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>171.2522535850787</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>213.9468079295565</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.47507150177353</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>36.51445555167288</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>40.30478226780133</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>230.6923168279474</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>134.6711151870879</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>145.801494602747</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.8768876993837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>86.11098998263074</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>37.70876137138008</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>114.0185712477017</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26329,10 +26329,10 @@
         <v>262322.644899252</v>
       </c>
       <c r="H2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="J2" t="n">
         <v>262322.6448992519</v>
@@ -26347,13 +26347,13 @@
         <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058925</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93438.23816781124</v>
+        <v>93438.23816781121</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
@@ -26427,37 +26427,37 @@
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695063</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695056</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695053</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695065</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
+        <v>14278.33979478855</v>
+      </c>
+      <c r="O4" t="n">
         <v>14278.33979478853</v>
       </c>
-      <c r="O4" t="n">
-        <v>14278.33979478854</v>
-      </c>
       <c r="P4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478852</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893406.6051643022</v>
+        <v>-893697.2123291483</v>
       </c>
       <c r="C6" t="n">
         <v>-128473.6286707578</v>
       </c>
       <c r="D6" t="n">
-        <v>44290.73111913465</v>
+        <v>44290.73111913446</v>
       </c>
       <c r="E6" t="n">
-        <v>-345976.2332021011</v>
+        <v>-346010.9711275367</v>
       </c>
       <c r="F6" t="n">
-        <v>154912.6345436498</v>
+        <v>154877.8966182141</v>
       </c>
       <c r="G6" t="n">
-        <v>154912.6345436498</v>
+        <v>154877.8966182141</v>
       </c>
       <c r="H6" t="n">
-        <v>154912.6345436496</v>
+        <v>154877.8966182139</v>
       </c>
       <c r="I6" t="n">
-        <v>154912.6345436498</v>
+        <v>154877.896618214</v>
       </c>
       <c r="J6" t="n">
-        <v>-14501.38228239809</v>
+        <v>-14536.12020783385</v>
       </c>
       <c r="K6" t="n">
-        <v>154912.6345436498</v>
+        <v>154877.8966182141</v>
       </c>
       <c r="L6" t="n">
-        <v>154912.6345436498</v>
+        <v>154877.8966182141</v>
       </c>
       <c r="M6" t="n">
-        <v>24028.17763941457</v>
+        <v>23993.43971397889</v>
       </c>
       <c r="N6" t="n">
-        <v>129968.4015635568</v>
+        <v>129968.4015635567</v>
       </c>
       <c r="O6" t="n">
-        <v>149396.1195571885</v>
+        <v>149396.1195571883</v>
       </c>
       <c r="P6" t="n">
-        <v>149396.1195571883</v>
+        <v>149396.1195571884</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498443</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>290.3262943880541</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>116.6487717977751</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>116.7246731823665</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>163.7682053065215</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>309.0571698212805</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>389.8914061462378</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>9.884059925411691</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>105.1399709860386</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>64.23171746053134</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9354087744531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>85.20807544920729</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>141.6505334922109</v>
+        <v>118.3539493818867</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.066977083933</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086969</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179229</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837062</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315577</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274804</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31671,28 +31671,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
         <v>239.5172944561276</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843059</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523068</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,16 +31850,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,7 +32315,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>181.6580975439405</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,22 +32783,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>693.4464364470641</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32807,10 +32807,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>147.4873481937412</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>414.9172504145583</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33500,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>434.6640573992324</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>307.3280120589134</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>481.4297026814658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>483.3274636075166</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,7 +34699,7 @@
         <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>180.1978162725941</v>
+        <v>315.1028144241328</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315071</v>
@@ -34708,19 +34708,19 @@
         <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352464</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352464</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
         <v>387.1148251643756</v>
@@ -34784,13 +34784,13 @@
         <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352464</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>492.2519396819906</v>
+        <v>353.1911892309193</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
         <v>492.5324261689369</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35027,13 +35027,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>647.4981915352464</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>452.7425494307592</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915739</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153406</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873421</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961977</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171349</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.546958993144</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
         <v>647.4981915352464</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>570.7518035997559</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131502</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297621</v>
+        <v>224.3786557865525</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978357</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597957</v>
@@ -35343,13 +35343,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,16 +35498,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>562.1047243637308</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36455,10 +36455,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>20.64972152707456</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>283.575538331225</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>300.6896499849021</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>339.2956687594475</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>340.7312191630721</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
